--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitortortorello/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitortortorello/Projetos/padaria/padaria-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA97FB-6D94-0543-8A3D-1D038E7442D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A5DFC-6008-FA45-A248-C38FF95534AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67480" yWindow="-4660" windowWidth="37280" windowHeight="23200" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Desenvolvedor</t>
   </si>
@@ -275,13 +275,31 @@
   </si>
   <si>
     <t>Ordenado pelo vencimento</t>
+  </si>
+  <si>
+    <t>Enviar email modo texto para clientes</t>
+  </si>
+  <si>
+    <t>Solicitar visita à loja para resolver pendências financeiras (tem títulos em atraso)</t>
+  </si>
+  <si>
+    <t>Enviar email html com promoções</t>
+  </si>
+  <si>
+    <t>Para todos os clientes</t>
+  </si>
+  <si>
+    <t>Java Spring</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,8 +315,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +380,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,81 +746,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45145</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45145</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C3" s="2">
-        <v>45145</v>
+        <v>45153</v>
       </c>
       <c r="D3" s="2">
-        <v>45146</v>
+        <v>45153</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45153</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45145</v>
+        <v>45152</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45153</v>
       </c>
       <c r="D4" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45145</v>
+        <v>45152</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45153</v>
       </c>
       <c r="D5" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
@@ -770,59 +820,59 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45145</v>
+        <v>45152</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45153</v>
       </c>
       <c r="D6" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45145</v>
+        <v>45152</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45153</v>
       </c>
       <c r="D7" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45145</v>
+        <v>45152</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45153</v>
       </c>
       <c r="D8" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>18</v>
@@ -830,62 +880,62 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45145</v>
+        <v>45152</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45153</v>
       </c>
       <c r="D9" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45145</v>
+        <v>45152</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45153</v>
       </c>
       <c r="D10" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45146</v>
+        <v>45152</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45153</v>
       </c>
       <c r="D11" s="2">
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -893,16 +943,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45146</v>
+        <v>45152</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45153</v>
       </c>
       <c r="D12" s="2">
-        <v>45147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
+        <v>45155</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>26</v>
@@ -910,579 +960,665 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45147</v>
+        <v>45152</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45153</v>
       </c>
       <c r="D13" s="2">
-        <v>45147</v>
+        <v>45155</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C14" s="2">
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="D14" s="2">
-        <v>45147</v>
+        <v>45155</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45147</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45147</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B16" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45155</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45147</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45147</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45147</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45147</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B18" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45155</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45148</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45148</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B20" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C20" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D20" s="11">
+        <v>45156</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G20" s="12" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45148</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45148</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45148</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45148</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C21" s="2">
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="D21" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="F21" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C22" s="2">
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="D22" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C23" s="2">
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="D23" s="2">
-        <v>45149</v>
+        <v>45157</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C24" s="2">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="D24" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C25" s="2">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="D25" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C26" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D26" s="2">
-        <v>45150</v>
+        <v>45158</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C27" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D27" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C28" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D28" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C29" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D29" s="2">
-        <v>45151</v>
+        <v>45159</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C30" s="2">
-        <v>45150</v>
+        <v>45156</v>
       </c>
       <c r="D30" s="2">
-        <v>45152</v>
+        <v>45159</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45156</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45159</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45157</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C31" s="2">
-        <v>45150</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45152</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="B33" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45157</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45160</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C32" s="2">
-        <v>45150</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45152</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="B34" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45157</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45160</v>
+      </c>
+      <c r="F34" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C33" s="2">
-        <v>45150</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45152</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B35" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45157</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45160</v>
+      </c>
+      <c r="F35" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C34" s="2">
-        <v>45150</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45152</v>
-      </c>
-      <c r="F34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C35" s="2">
-        <v>45151</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45152</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C36" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D36" s="2">
-        <v>45154</v>
+        <v>45160</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C37" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="D37" s="2">
-        <v>45154</v>
+        <v>45160</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C38" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="D38" s="2">
-        <v>45154</v>
+        <v>45161</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C39" s="2">
-        <v>45153</v>
+        <v>45158</v>
       </c>
       <c r="D39" s="2">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2">
-        <v>45144</v>
+        <v>45152</v>
       </c>
       <c r="C40" s="2">
-        <v>45153</v>
+        <v>45158</v>
       </c>
       <c r="D40" s="2">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45162</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C41" s="2">
-        <v>45153</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45155</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="B43" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45162</v>
+      </c>
+      <c r="F43" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45166</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45166</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitortortorello/Projetos/padaria/padaria-doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A5DFC-6008-FA45-A248-C38FF95534AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D3871-F5AA-4D1F-847E-05C7C934E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67480" yWindow="-4660" windowWidth="37280" windowHeight="23200" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -370,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,11 +376,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,20 +694,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -755,7 +739,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -778,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -791,6 +775,9 @@
       <c r="D4" s="2">
         <v>45154</v>
       </c>
+      <c r="E4" s="2">
+        <v>45150</v>
+      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -798,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -818,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -838,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -858,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -878,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -898,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -918,7 +905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -938,7 +925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -958,7 +945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -978,7 +965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -998,7 +985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1078,7 +1065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1087,27 +1074,27 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C20" s="2">
         <v>45155</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="2">
         <v>45156</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1294,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1387,7 +1374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1444,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1491,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1544,7 +1531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1564,7 +1551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D3871-F5AA-4D1F-847E-05C7C934E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD287A-C79B-4788-8501-0CEB294FCD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
@@ -776,7 +776,7 @@
         <v>45154</v>
       </c>
       <c r="E4" s="2">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD287A-C79B-4788-8501-0CEB294FCD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB207914-019A-46EE-9179-8B2AF63087E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -695,19 +695,19 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" customWidth="1"/>
+    <col min="2" max="4" width="14.59765625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="45.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.09765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -762,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -818,6 +818,9 @@
       <c r="D6" s="2">
         <v>45154</v>
       </c>
+      <c r="E6" s="2">
+        <v>45152</v>
+      </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
@@ -825,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -845,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -865,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -885,7 +888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -905,7 +908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -925,7 +928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -945,7 +948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -965,7 +968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -985,7 +988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1074,7 +1077,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB207914-019A-46EE-9179-8B2AF63087E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA13BBEF-466F-4441-8750-586525FE2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -798,6 +798,9 @@
       <c r="D5" s="2">
         <v>45154</v>
       </c>
+      <c r="E5" s="2">
+        <v>45152</v>
+      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA13BBEF-466F-4441-8750-586525FE2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCB493-C459-4EDA-8884-098C610796F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -884,6 +884,9 @@
       <c r="D9" s="2">
         <v>45154</v>
       </c>
+      <c r="E9" s="2">
+        <v>45153</v>
+      </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Projetos\Padaria\padaria-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCB493-C459-4EDA-8884-098C610796F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15DFCC-049C-4739-81F7-C5975E76B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -695,19 +695,19 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
-    <col min="2" max="4" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="45.09765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -762,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -844,6 +844,9 @@
       <c r="D7" s="2">
         <v>45154</v>
       </c>
+      <c r="E7" s="2">
+        <v>45153</v>
+      </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
@@ -851,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -871,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -894,7 +897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -914,7 +917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -934,7 +937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -954,7 +957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -974,7 +977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -994,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1083,7 +1086,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15DFCC-049C-4739-81F7-C5975E76B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41433C5-9362-4C6E-9D8B-189A3F8CDEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,6 +910,9 @@
       <c r="D10" s="2">
         <v>45154</v>
       </c>
+      <c r="E10" s="2">
+        <v>45153</v>
+      </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41433C5-9362-4C6E-9D8B-189A3F8CDEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73788D94-D9DE-465C-872B-35B68011CB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -867,6 +867,9 @@
       <c r="D8" s="2">
         <v>45154</v>
       </c>
+      <c r="E8" s="2">
+        <v>45153</v>
+      </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
@@ -932,6 +935,9 @@
       </c>
       <c r="D11" s="2">
         <v>45154</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45153</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitortortorello/Projetos/padaria/padaria-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73788D94-D9DE-465C-872B-35B68011CB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A53010-02C3-0748-992C-30B7B3FBF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="-68560" yWindow="-2600" windowWidth="41120" windowHeight="20460" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Reajustar preços com parâmetro percentual</t>
   </si>
   <si>
-    <t>Criar trigger t_Compra_Recebimento</t>
-  </si>
-  <si>
     <t>Criar trigger t_Vendas_Encerrar</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>Criar trigger tbiu_Compra_Recebimento</t>
   </si>
 </sst>
 </file>
@@ -694,20 +694,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="260" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="45.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,16 +730,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -759,10 +759,10 @@
         <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -854,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -900,7 +900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -923,7 +923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -943,10 +943,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -959,6 +959,9 @@
       <c r="D12" s="2">
         <v>45155</v>
       </c>
+      <c r="E12" s="2">
+        <v>45154</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
@@ -966,7 +969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -979,6 +982,9 @@
       <c r="D13" s="2">
         <v>45155</v>
       </c>
+      <c r="E13" s="2">
+        <v>45154</v>
+      </c>
       <c r="F13" t="s">
         <v>27</v>
       </c>
@@ -986,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1040,13 +1046,13 @@
         <v>45155</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1060,13 +1066,13 @@
         <v>45155</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1080,22 +1086,22 @@
         <v>45155</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1109,13 +1115,13 @@
         <v>45156</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1129,13 +1135,13 @@
         <v>45156</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1149,13 +1155,13 @@
         <v>45156</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1169,13 +1175,13 @@
         <v>45157</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1189,13 +1195,13 @@
         <v>45157</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1209,13 +1215,13 @@
         <v>45157</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1229,13 +1235,13 @@
         <v>45158</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1249,13 +1255,13 @@
         <v>45158</v>
       </c>
       <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1269,13 +1275,13 @@
         <v>45158</v>
       </c>
       <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1289,13 +1295,13 @@
         <v>45159</v>
       </c>
       <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1309,13 +1315,13 @@
         <v>45159</v>
       </c>
       <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1329,13 +1335,13 @@
         <v>45159</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1349,13 +1355,13 @@
         <v>45160</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1369,13 +1375,13 @@
         <v>45160</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1389,13 +1395,13 @@
         <v>45160</v>
       </c>
       <c r="F34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1409,10 +1415,10 @@
         <v>45160</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1426,13 +1432,13 @@
         <v>45160</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1446,13 +1452,13 @@
         <v>45160</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1466,13 +1472,13 @@
         <v>45161</v>
       </c>
       <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1486,13 +1492,13 @@
         <v>45161</v>
       </c>
       <c r="F39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1506,13 +1512,13 @@
         <v>45161</v>
       </c>
       <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1526,13 +1532,13 @@
         <v>45162</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1546,13 +1552,13 @@
         <v>45162</v>
       </c>
       <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1566,13 +1572,13 @@
         <v>45162</v>
       </c>
       <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1586,13 +1592,13 @@
         <v>45166</v>
       </c>
       <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1606,13 +1612,13 @@
         <v>45166</v>
       </c>
       <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>45166</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitortortorello/Projetos/padaria/padaria-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A53010-02C3-0748-992C-30B7B3FBF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A5C4BF-3596-6B4E-8D7B-1E12BDE31BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68560" yWindow="-2600" windowWidth="41120" windowHeight="20460" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="-43260" yWindow="-4400" windowWidth="41120" windowHeight="22900" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
   <si>
     <t>Desenvolvedor</t>
   </si>
@@ -282,6 +282,48 @@
   </si>
   <si>
     <t>Criar trigger tbiu_Compra_Recebimento</t>
+  </si>
+  <si>
+    <t>18/08/1023</t>
+  </si>
+  <si>
+    <t>Inserts empresa, cidades, planos_pagamento</t>
+  </si>
+  <si>
+    <t>Inserts pessoas, telefones, fornecedores, clientes</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0600 - Insert empresa. Pelo menos 10 cidades e 5 planos de pagamento</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0610 - Insert fornecedoresClientes. Pelo menos 6 clientes, 4 fornecedores, 2 pessoas que são cliente E fornecedor.</t>
+  </si>
+  <si>
+    <t>Inserts produtos/departamentos</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0620 - Insert produtos. Pelo menos 50 produtos e 6 departamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ana Júlia e Renan</t>
+  </si>
+  <si>
+    <t>Insert compras, compras_itens e pagar</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0630 - Insert compras. Pelo menos 4 compras.</t>
+  </si>
+  <si>
+    <t>Gustavo e Renan</t>
+  </si>
+  <si>
+    <t>Insert vendas, vendas_itens, receber</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0640 - Insert vendas. Pelo menos 5 vendas.</t>
   </si>
 </sst>
 </file>
@@ -359,24 +401,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,946 +757,1053 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="260" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="9" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="7" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C3" s="11">
         <v>45153</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="11">
         <v>45153</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <v>45153</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C4" s="12">
         <v>45153</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
         <v>45154</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="11">
         <v>45151</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C5" s="12">
         <v>45153</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <v>45154</v>
       </c>
-      <c r="E5" s="2">
-        <v>45152</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="11">
+        <v>45152</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C6" s="12">
         <v>45153</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="11">
         <v>45154</v>
       </c>
-      <c r="E6" s="2">
-        <v>45152</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="11">
+        <v>45152</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C7" s="12">
         <v>45153</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>45154</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <v>45153</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C8" s="12">
         <v>45153</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="11">
         <v>45154</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="11">
         <v>45153</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C9" s="12">
         <v>45153</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
         <v>45154</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="11">
         <v>45153</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C10" s="12">
         <v>45153</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="11">
         <v>45154</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="11">
         <v>45153</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C11" s="12">
         <v>45153</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="11">
         <v>45154</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="11">
         <v>45153</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C12" s="12">
         <v>45153</v>
       </c>
-      <c r="D12" s="2">
-        <v>45155</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="11">
+        <v>45155</v>
+      </c>
+      <c r="E12" s="11">
         <v>45154</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C13" s="12">
         <v>45153</v>
       </c>
-      <c r="D13" s="2">
-        <v>45155</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="11">
+        <v>45155</v>
+      </c>
+      <c r="E13" s="11">
         <v>45154</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C14" s="11">
         <v>45154</v>
       </c>
-      <c r="D14" s="2">
-        <v>45155</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="11">
+        <v>45155</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C15" s="11">
         <v>45154</v>
       </c>
-      <c r="D15" s="2">
-        <v>45155</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="11">
+        <v>45155</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C16" s="11">
         <v>45154</v>
       </c>
-      <c r="D16" s="2">
-        <v>45155</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="11">
+        <v>45155</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C17" s="11">
         <v>45154</v>
       </c>
-      <c r="D17" s="2">
-        <v>45155</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" s="11">
+        <v>45155</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C18" s="11">
         <v>45154</v>
       </c>
-      <c r="D18" s="2">
-        <v>45155</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="11">
+        <v>45155</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="7" t="s">
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="11">
+        <v>45155</v>
+      </c>
+      <c r="C19" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45155</v>
+      </c>
+      <c r="C20" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D20" s="11">
+        <v>45156</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45155</v>
+      </c>
+      <c r="C21" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D21" s="11">
+        <v>45156</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="11">
+        <v>45155</v>
+      </c>
+      <c r="C22" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D22" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="11">
+        <v>45155</v>
+      </c>
+      <c r="C23" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D23" s="11">
+        <v>45156</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45155</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B25" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C25" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D25" s="11">
         <v>45156</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45155</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B26" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C26" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D26" s="11">
         <v>45156</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45155</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B27" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C27" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D27" s="11">
         <v>45156</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C23" s="2">
-        <v>45155</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B28" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C28" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D28" s="11">
         <v>45157</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45155</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B29" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C29" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D29" s="11">
         <v>45157</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45155</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B30" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C30" s="11">
+        <v>45155</v>
+      </c>
+      <c r="D30" s="11">
         <v>45157</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B31" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C31" s="11">
         <v>45156</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D31" s="11">
         <v>45158</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B32" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C32" s="11">
         <v>45156</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D32" s="11">
         <v>45158</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B33" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C33" s="11">
         <v>45156</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D33" s="11">
         <v>45158</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B34" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C34" s="11">
         <v>45156</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D34" s="11">
         <v>45159</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B35" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C35" s="11">
         <v>45156</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D35" s="11">
         <v>45159</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B36" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C36" s="11">
         <v>45156</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D36" s="11">
         <v>45159</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B37" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C37" s="11">
         <v>45157</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D37" s="11">
         <v>45160</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B38" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C38" s="11">
         <v>45157</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D38" s="11">
         <v>45160</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B39" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C39" s="11">
         <v>45157</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D39" s="11">
         <v>45160</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G39" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B40" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C40" s="11">
         <v>45157</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D40" s="11">
         <v>45160</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F40" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B41" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C41" s="11">
         <v>45157</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D41" s="11">
         <v>45160</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B42" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C42" s="11">
         <v>45158</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D42" s="11">
         <v>45160</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B43" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C43" s="11">
         <v>45158</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D43" s="11">
         <v>45161</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B44" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C44" s="11">
         <v>45158</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D44" s="11">
         <v>45161</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B45" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C45" s="11">
         <v>45158</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D45" s="11">
         <v>45161</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G45" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B46" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C46" s="11">
         <v>45159</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D46" s="11">
         <v>45162</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B47" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C47" s="11">
         <v>45159</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D47" s="11">
         <v>45162</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G47" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B48" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C48" s="11">
         <v>45159</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D48" s="11">
         <v>45162</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G48" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B49" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C49" s="11">
         <v>45159</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D49" s="11">
         <v>45166</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G49" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B50" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C50" s="11">
         <v>45159</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D50" s="11">
         <v>45166</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F50" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G50" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="2">
-        <v>45152</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B51" s="11">
+        <v>45152</v>
+      </c>
+      <c r="C51" s="11">
         <v>45159</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D51" s="11">
         <v>45166</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F51" s="5" t="s">
         <v>80</v>
       </c>
     </row>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitortortorello/Projetos/padaria/padaria-doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A5C4BF-3596-6B4E-8D7B-1E12BDE31BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E8131D-5FCA-4799-AA28-68924522A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43260" yWindow="-4400" windowWidth="41120" windowHeight="22900" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Desenvolvedor</t>
   </si>
@@ -317,13 +317,16 @@
     <t>Nome da pasta: 0630 - Insert compras. Pelo menos 4 compras.</t>
   </si>
   <si>
-    <t>Gustavo e Renan</t>
-  </si>
-  <si>
     <t>Insert vendas, vendas_itens, receber</t>
   </si>
   <si>
     <t>Nome da pasta: 0640 - Insert vendas. Pelo menos 5 vendas.</t>
+  </si>
+  <si>
+    <t>Insert ufs</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0641 - Insert ufs</t>
   </si>
 </sst>
 </file>
@@ -401,23 +404,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -442,6 +432,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,1053 +752,1086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="9" customWidth="1"/>
-    <col min="2" max="4" width="14.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="4" customWidth="1"/>
+    <col min="2" max="4" width="14.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4" t="s">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C3" s="6">
         <v>45153</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>45153</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>45153</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C4" s="7">
         <v>45153</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>45154</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>45151</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C5" s="7">
         <v>45153</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>45154</v>
       </c>
-      <c r="E5" s="11">
-        <v>45152</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6">
+        <v>45152</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C6" s="7">
         <v>45153</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>45154</v>
       </c>
-      <c r="E6" s="11">
-        <v>45152</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="6">
+        <v>45152</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C7" s="7">
         <v>45153</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>45154</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>45153</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C8" s="7">
         <v>45153</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>45154</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <v>45153</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C9" s="7">
         <v>45153</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>45154</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <v>45153</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C10" s="7">
         <v>45153</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>45154</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
         <v>45153</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C11" s="7">
         <v>45153</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>45154</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
         <v>45153</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C12" s="7">
         <v>45153</v>
       </c>
-      <c r="D12" s="11">
-        <v>45155</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="6">
+        <v>45155</v>
+      </c>
+      <c r="E12" s="6">
         <v>45154</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C13" s="7">
         <v>45153</v>
       </c>
-      <c r="D13" s="11">
-        <v>45155</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="6">
+        <v>45155</v>
+      </c>
+      <c r="E13" s="6">
         <v>45154</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C14" s="6">
         <v>45154</v>
       </c>
-      <c r="D14" s="11">
-        <v>45155</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="6">
+        <v>45155</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C15" s="6">
         <v>45154</v>
       </c>
-      <c r="D15" s="11">
-        <v>45155</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="6">
+        <v>45155</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C16" s="6">
         <v>45154</v>
       </c>
-      <c r="D16" s="11">
-        <v>45155</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="6">
+        <v>45155</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C17" s="6">
         <v>45154</v>
       </c>
-      <c r="D17" s="11">
-        <v>45155</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="6">
+        <v>45155</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C18" s="6">
         <v>45154</v>
       </c>
-      <c r="D18" s="11">
-        <v>45155</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="6">
+        <v>45155</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="11">
-        <v>45155</v>
-      </c>
-      <c r="C19" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="6">
+        <v>45155</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11">
-        <v>45155</v>
-      </c>
-      <c r="C20" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="B20" s="6">
+        <v>45155</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D20" s="6">
         <v>45156</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45155</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45156</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45155</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45156</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45155</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45156</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="11">
-        <v>45155</v>
-      </c>
-      <c r="C21" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="B24" s="6">
+        <v>45155</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D24" s="6">
         <v>45156</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="11">
-        <v>45155</v>
-      </c>
-      <c r="C22" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="F24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D26" s="6">
         <v>45156</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="11">
-        <v>45155</v>
-      </c>
-      <c r="C23" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="F26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D27" s="6">
         <v>45156</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="F27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45156</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C25" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="B29" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45157</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45157</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45155</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45157</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C32" s="6">
         <v>45156</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="D32" s="6">
+        <v>45158</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C26" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="B33" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C33" s="6">
         <v>45156</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="D33" s="6">
+        <v>45158</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C27" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="B34" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C34" s="6">
         <v>45156</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="D34" s="6">
+        <v>45158</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C28" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="B35" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45156</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45156</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45156</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C38" s="6">
         <v>45157</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="D38" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C29" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="B39" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C39" s="6">
         <v>45157</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="D39" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C30" s="11">
-        <v>45155</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="B40" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C40" s="6">
         <v>45157</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="D40" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C31" s="11">
-        <v>45156</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="B41" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45157</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45157</v>
+      </c>
+      <c r="D42" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C43" s="6">
         <v>45158</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="D43" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45158</v>
+      </c>
+      <c r="D44" s="6">
+        <v>45161</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C32" s="11">
-        <v>45156</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="B45" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C45" s="6">
         <v>45158</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="D45" s="6">
+        <v>45161</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C33" s="11">
-        <v>45156</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="B46" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C46" s="6">
         <v>45158</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="D46" s="6">
+        <v>45161</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C34" s="11">
-        <v>45156</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="B47" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C47" s="6">
         <v>45159</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="D47" s="6">
+        <v>45162</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C35" s="11">
-        <v>45156</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="B48" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C48" s="6">
         <v>45159</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="D48" s="6">
+        <v>45162</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C36" s="11">
-        <v>45156</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="B49" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C49" s="6">
         <v>45159</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="D49" s="6">
+        <v>45162</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C37" s="11">
-        <v>45157</v>
-      </c>
-      <c r="D37" s="11">
-        <v>45160</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="B50" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C50" s="6">
+        <v>45159</v>
+      </c>
+      <c r="D50" s="6">
+        <v>45166</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C38" s="11">
-        <v>45157</v>
-      </c>
-      <c r="D38" s="11">
-        <v>45160</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="B51" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C51" s="6">
+        <v>45159</v>
+      </c>
+      <c r="D51" s="6">
+        <v>45166</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C39" s="11">
-        <v>45157</v>
-      </c>
-      <c r="D39" s="11">
-        <v>45160</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C40" s="11">
-        <v>45157</v>
-      </c>
-      <c r="D40" s="11">
-        <v>45160</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C41" s="11">
-        <v>45157</v>
-      </c>
-      <c r="D41" s="11">
-        <v>45160</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C42" s="11">
-        <v>45158</v>
-      </c>
-      <c r="D42" s="11">
-        <v>45160</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C43" s="11">
-        <v>45158</v>
-      </c>
-      <c r="D43" s="11">
-        <v>45161</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C44" s="11">
-        <v>45158</v>
-      </c>
-      <c r="D44" s="11">
-        <v>45161</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C45" s="11">
-        <v>45158</v>
-      </c>
-      <c r="D45" s="11">
-        <v>45161</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B52" s="6">
+        <v>45152</v>
+      </c>
+      <c r="C52" s="6">
         <v>45159</v>
       </c>
-      <c r="D46" s="11">
-        <v>45162</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C47" s="11">
-        <v>45159</v>
-      </c>
-      <c r="D47" s="11">
-        <v>45162</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C48" s="11">
-        <v>45159</v>
-      </c>
-      <c r="D48" s="11">
-        <v>45162</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C49" s="11">
-        <v>45159</v>
-      </c>
-      <c r="D49" s="11">
+      <c r="D52" s="6">
         <v>45166</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C50" s="11">
-        <v>45159</v>
-      </c>
-      <c r="D50" s="11">
-        <v>45166</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="11">
-        <v>45152</v>
-      </c>
-      <c r="C51" s="11">
-        <v>45159</v>
-      </c>
-      <c r="D51" s="11">
-        <v>45166</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>80</v>
       </c>
     </row>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E8131D-5FCA-4799-AA28-68924522A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB11DD-F366-4CB8-8836-222ACE47F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,8 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -754,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,9 +762,8 @@
     <col min="1" max="1" width="16.875" style="4" customWidth="1"/>
     <col min="2" max="4" width="14.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="45.125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1025,7 +1023,7 @@
       <c r="E12" s="6">
         <v>45154</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1191,9 +1189,7 @@
       <c r="D20" s="6">
         <v>45156</v>
       </c>
-      <c r="E20" s="6">
-        <v>45159</v>
-      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="4" t="s">
         <v>87</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB11DD-F366-4CB8-8836-222ACE47F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD846433-CF88-45D2-9708-88E4275597E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$52</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -753,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,7 +765,7 @@
     <col min="1" max="1" width="16.875" style="4" customWidth="1"/>
     <col min="2" max="4" width="14.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1211,7 +1214,7 @@
         <v>45156</v>
       </c>
       <c r="E21" s="6">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>90</v>
@@ -1832,6 +1835,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G52" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meira\Projetos\Padaria\padaria-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD846433-CF88-45D2-9708-88E4275597E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE9381-B74A-4C01-8282-F1A31DB4DEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,9 @@
       <c r="D20" s="6">
         <v>45156</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>45161</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>87</v>
       </c>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitortortorello/Projetos/padaria/padaria-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A5C4BF-3596-6B4E-8D7B-1E12BDE31BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A1BD8D-29EC-5C4C-9692-689C7B790119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43260" yWindow="-4400" windowWidth="41120" windowHeight="22900" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
+    <workbookView xWindow="-66540" yWindow="-4780" windowWidth="34300" windowHeight="22900" xr2:uid="{69933DCC-ED01-7C44-8F70-AA2271B99551}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
   <si>
     <t>Desenvolvedor</t>
   </si>
@@ -124,206 +124,203 @@
   </si>
   <si>
     <t>Reajustar preços com parâmetro percentual</t>
-  </si>
-  <si>
-    <t>Criar trigger t_Vendas_Encerrar</t>
   </si>
   <si>
     <t xml:space="preserve">Efetuar recebimento da compra se data_recebimento passar de null para uma data válida. Inserir pagar. Atualizar estoque.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Efetuar recebimento da compra se data_fim passar de null para uma data válida. Inserir receber. Atualizar estoque.
+    <t>Definir índices, checks. Planos de pagamento.</t>
+  </si>
+  <si>
+    <t>Fornecedores, Clientes</t>
+  </si>
+  <si>
+    <t>Pessoas, Telefones</t>
+  </si>
+  <si>
+    <t>Departamentos, Produtos</t>
+  </si>
+  <si>
+    <t>Compras, Compras_Itens</t>
+  </si>
+  <si>
+    <t>Vendas, Vendas_Itens</t>
+  </si>
+  <si>
+    <t>Empresa, Cidades, Ufs, Planos_Pagamento</t>
+  </si>
+  <si>
+    <t>CRUD / ListAll / Select by id</t>
+  </si>
+  <si>
+    <t>Criar function f_Preco_Reajusta</t>
+  </si>
+  <si>
+    <t>End point reajustar preços</t>
+  </si>
+  <si>
+    <t>End point listar produtos a comprar</t>
+  </si>
+  <si>
+    <t>Estoque abaixo do pp (ponto de pedido)</t>
+  </si>
+  <si>
+    <t>End point inadimplentes</t>
+  </si>
+  <si>
+    <t>Clientes com atraso</t>
+  </si>
+  <si>
+    <t>Parâmetro percentual</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0250 - Receber</t>
+  </si>
+  <si>
+    <t>Venda média dos produtos</t>
+  </si>
+  <si>
+    <t>Por dia, semana, quinzena, mês, trimestre</t>
+  </si>
+  <si>
+    <t>Clientes que maior valor de compra</t>
+  </si>
+  <si>
+    <t>Parâmetros: dia inicial e dia final</t>
+  </si>
+  <si>
+    <t>Fornecedores com maior valor</t>
+  </si>
+  <si>
+    <t>Nos últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Vendas valor e % por tipo de pagto</t>
+  </si>
+  <si>
+    <t>Produtos com margem menor que %</t>
+  </si>
+  <si>
+    <t>Utilize: pvEsperado = (1 + margem) * preço da compra</t>
+  </si>
+  <si>
+    <t>Vendas por bairro no período</t>
+  </si>
+  <si>
+    <t>Títulos em aberto do cliente</t>
+  </si>
+  <si>
+    <t>Títulos a pagar até hoje</t>
+  </si>
+  <si>
+    <t>Valores a pagar e receber</t>
+  </si>
+  <si>
+    <t>Valores e % no dia e acumulados</t>
+  </si>
+  <si>
+    <t>Produtos com estoque em excesso</t>
+  </si>
+  <si>
+    <t>Produtos com estoque para vendas acima de 30dd</t>
+  </si>
+  <si>
+    <t>Clientes sem comprar</t>
+  </si>
+  <si>
+    <t>Clientes que não compram há mais de 20 dias</t>
+  </si>
+  <si>
+    <t>Valor do ticket médio e qtde de visitas</t>
+  </si>
+  <si>
+    <t>Valor das vendas e % nos dias da sem.</t>
+  </si>
+  <si>
+    <t>Valor das vendas e % nas semanas</t>
+  </si>
+  <si>
+    <t>Considere: 1 a 7, 8 a 14, 15 a 22, 23 a 31. Args: di, df</t>
+  </si>
+  <si>
+    <t>Vendas para clientes e não clientes</t>
+  </si>
+  <si>
+    <t>Valor e % do período</t>
+  </si>
+  <si>
+    <t>Parâmetro: id do cliente. Ordenado pelo vencimento</t>
+  </si>
+  <si>
+    <t>Ordenado pelo vencimento</t>
+  </si>
+  <si>
+    <t>Enviar email modo texto para clientes</t>
+  </si>
+  <si>
+    <t>Solicitar visita à loja para resolver pendências financeiras (tem títulos em atraso)</t>
+  </si>
+  <si>
+    <t>Enviar email html com promoções</t>
+  </si>
+  <si>
+    <t>Para todos os clientes</t>
+  </si>
+  <si>
+    <t>Java Spring</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Criar trigger tbiu_Compra_Recebimento</t>
+  </si>
+  <si>
+    <t>18/08/1023</t>
+  </si>
+  <si>
+    <t>Inserts empresa, cidades, planos_pagamento</t>
+  </si>
+  <si>
+    <t>Inserts pessoas, telefones, fornecedores, clientes</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0600 - Insert empresa. Pelo menos 10 cidades e 5 planos de pagamento</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0610 - Insert fornecedoresClientes. Pelo menos 6 clientes, 4 fornecedores, 2 pessoas que são cliente E fornecedor.</t>
+  </si>
+  <si>
+    <t>Inserts produtos/departamentos</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0620 - Insert produtos. Pelo menos 50 produtos e 6 departamentos.</t>
+  </si>
+  <si>
+    <t>Ana Júlia e Renan</t>
+  </si>
+  <si>
+    <t>Insert compras, compras_itens e pagar</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0630 - Insert compras. Pelo menos 4 compras.</t>
+  </si>
+  <si>
+    <t>Gustavo e Renan</t>
+  </si>
+  <si>
+    <t>Insert vendas, vendas_itens, receber</t>
+  </si>
+  <si>
+    <t>Nome da pasta: 0640 - Insert vendas. Pelo menos 5 vendas.</t>
+  </si>
+  <si>
+    <t>Criar trigger t_vendas_encerrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efetuar recebimento da venda se data_fim passar de null para uma data válida. Inserir receber. Atualizar estoque.
 </t>
-  </si>
-  <si>
-    <t>Definir índices, checks. Planos de pagamento.</t>
-  </si>
-  <si>
-    <t>Fornecedores, Clientes</t>
-  </si>
-  <si>
-    <t>Pessoas, Telefones</t>
-  </si>
-  <si>
-    <t>Departamentos, Produtos</t>
-  </si>
-  <si>
-    <t>Compras, Compras_Itens</t>
-  </si>
-  <si>
-    <t>Vendas, Vendas_Itens</t>
-  </si>
-  <si>
-    <t>Empresa, Cidades, Ufs, Planos_Pagamento</t>
-  </si>
-  <si>
-    <t>CRUD / ListAll / Select by id</t>
-  </si>
-  <si>
-    <t>Criar function f_Preco_Reajusta</t>
-  </si>
-  <si>
-    <t>End point reajustar preços</t>
-  </si>
-  <si>
-    <t>End point listar produtos a comprar</t>
-  </si>
-  <si>
-    <t>Estoque abaixo do pp (ponto de pedido)</t>
-  </si>
-  <si>
-    <t>End point inadimplentes</t>
-  </si>
-  <si>
-    <t>Clientes com atraso</t>
-  </si>
-  <si>
-    <t>Parâmetro percentual</t>
-  </si>
-  <si>
-    <t>Nome da pasta: 0250 - Receber</t>
-  </si>
-  <si>
-    <t>Venda média dos produtos</t>
-  </si>
-  <si>
-    <t>Por dia, semana, quinzena, mês, trimestre</t>
-  </si>
-  <si>
-    <t>Clientes que maior valor de compra</t>
-  </si>
-  <si>
-    <t>Parâmetros: dia inicial e dia final</t>
-  </si>
-  <si>
-    <t>Fornecedores com maior valor</t>
-  </si>
-  <si>
-    <t>Nos últimos 12 meses</t>
-  </si>
-  <si>
-    <t>Vendas valor e % por tipo de pagto</t>
-  </si>
-  <si>
-    <t>Produtos com margem menor que %</t>
-  </si>
-  <si>
-    <t>Utilize: pvEsperado = (1 + margem) * preço da compra</t>
-  </si>
-  <si>
-    <t>Vendas por bairro no período</t>
-  </si>
-  <si>
-    <t>Títulos em aberto do cliente</t>
-  </si>
-  <si>
-    <t>Títulos a pagar até hoje</t>
-  </si>
-  <si>
-    <t>Valores a pagar e receber</t>
-  </si>
-  <si>
-    <t>Valores e % no dia e acumulados</t>
-  </si>
-  <si>
-    <t>Produtos com estoque em excesso</t>
-  </si>
-  <si>
-    <t>Produtos com estoque para vendas acima de 30dd</t>
-  </si>
-  <si>
-    <t>Clientes sem comprar</t>
-  </si>
-  <si>
-    <t>Clientes que não compram há mais de 20 dias</t>
-  </si>
-  <si>
-    <t>Valor do ticket médio e qtde de visitas</t>
-  </si>
-  <si>
-    <t>Valor das vendas e % nos dias da sem.</t>
-  </si>
-  <si>
-    <t>Valor das vendas e % nas semanas</t>
-  </si>
-  <si>
-    <t>Considere: 1 a 7, 8 a 14, 15 a 22, 23 a 31. Args: di, df</t>
-  </si>
-  <si>
-    <t>Vendas para clientes e não clientes</t>
-  </si>
-  <si>
-    <t>Valor e % do período</t>
-  </si>
-  <si>
-    <t>Parâmetro: id do cliente. Ordenado pelo vencimento</t>
-  </si>
-  <si>
-    <t>Ordenado pelo vencimento</t>
-  </si>
-  <si>
-    <t>Enviar email modo texto para clientes</t>
-  </si>
-  <si>
-    <t>Solicitar visita à loja para resolver pendências financeiras (tem títulos em atraso)</t>
-  </si>
-  <si>
-    <t>Enviar email html com promoções</t>
-  </si>
-  <si>
-    <t>Para todos os clientes</t>
-  </si>
-  <si>
-    <t>Java Spring</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Criar trigger tbiu_Compra_Recebimento</t>
-  </si>
-  <si>
-    <t>18/08/1023</t>
-  </si>
-  <si>
-    <t>Inserts empresa, cidades, planos_pagamento</t>
-  </si>
-  <si>
-    <t>Inserts pessoas, telefones, fornecedores, clientes</t>
-  </si>
-  <si>
-    <t>Nome da pasta: 0600 - Insert empresa. Pelo menos 10 cidades e 5 planos de pagamento</t>
-  </si>
-  <si>
-    <t>Nome da pasta: 0610 - Insert fornecedoresClientes. Pelo menos 6 clientes, 4 fornecedores, 2 pessoas que são cliente E fornecedor.</t>
-  </si>
-  <si>
-    <t>Inserts produtos/departamentos</t>
-  </si>
-  <si>
-    <t>Nome da pasta: 0620 - Insert produtos. Pelo menos 50 produtos e 6 departamentos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Ana Júlia e Renan</t>
-  </si>
-  <si>
-    <t>Insert compras, compras_itens e pagar</t>
-  </si>
-  <si>
-    <t>Nome da pasta: 0630 - Insert compras. Pelo menos 4 compras.</t>
-  </si>
-  <si>
-    <t>Gustavo e Renan</t>
-  </si>
-  <si>
-    <t>Insert vendas, vendas_itens, receber</t>
-  </si>
-  <si>
-    <t>Nome da pasta: 0640 - Insert vendas. Pelo menos 5 vendas.</t>
   </si>
 </sst>
 </file>
@@ -759,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80441D6D-8D39-D14B-AE2A-18541D22F157}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,7 +799,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -826,7 +823,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1010,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1072,6 +1069,9 @@
       <c r="D14" s="11">
         <v>45155</v>
       </c>
+      <c r="E14" s="11">
+        <v>45155</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1092,6 +1092,9 @@
       <c r="D15" s="11">
         <v>45155</v>
       </c>
+      <c r="E15" s="11">
+        <v>45155</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1112,8 +1115,11 @@
       <c r="D16" s="11">
         <v>45155</v>
       </c>
+      <c r="E16" s="11">
+        <v>45155</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>32</v>
@@ -1132,11 +1138,14 @@
       <c r="D17" s="11">
         <v>45155</v>
       </c>
+      <c r="E17" s="11">
+        <v>45155</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1152,11 +1161,14 @@
       <c r="D18" s="11">
         <v>45155</v>
       </c>
+      <c r="E18" s="11">
+        <v>45155</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1170,13 +1182,16 @@
         <v>45155</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45156</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1192,11 +1207,14 @@
       <c r="D20" s="11">
         <v>45156</v>
       </c>
+      <c r="E20" s="11">
+        <v>45156</v>
+      </c>
       <c r="F20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1212,16 +1230,19 @@
       <c r="D21" s="11">
         <v>45156</v>
       </c>
+      <c r="E21" s="11">
+        <v>45156</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" s="11">
         <v>45155</v>
@@ -1232,19 +1253,19 @@
       <c r="D22" s="11">
         <v>45156</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11">
+        <v>45156</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" s="11">
         <v>45155</v>
@@ -1255,11 +1276,14 @@
       <c r="D23" s="11">
         <v>45156</v>
       </c>
+      <c r="E23" s="11">
+        <v>45156</v>
+      </c>
       <c r="F23" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1269,7 +1293,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="14"/>
       <c r="F24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1287,10 +1311,10 @@
         <v>45156</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1307,10 +1331,10 @@
         <v>45156</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1327,10 +1351,10 @@
         <v>45156</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1347,10 +1371,10 @@
         <v>45157</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1367,10 +1391,10 @@
         <v>45157</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1387,10 +1411,10 @@
         <v>45157</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1407,10 +1431,10 @@
         <v>45158</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1427,10 +1451,10 @@
         <v>45158</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1447,10 +1471,10 @@
         <v>45158</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1467,10 +1491,10 @@
         <v>45159</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1487,10 +1511,10 @@
         <v>45159</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1507,13 +1531,13 @@
         <v>45159</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>7</v>
       </c>
@@ -1527,10 +1551,10 @@
         <v>45160</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1547,10 +1571,10 @@
         <v>45160</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1567,10 +1591,10 @@
         <v>45160</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1587,7 +1611,7 @@
         <v>45160</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1604,10 +1628,10 @@
         <v>45160</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1624,10 +1648,10 @@
         <v>45160</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1644,10 +1668,10 @@
         <v>45161</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1664,10 +1688,10 @@
         <v>45161</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1684,13 +1708,13 @@
         <v>45161</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -1704,10 +1728,10 @@
         <v>45162</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1724,10 +1748,10 @@
         <v>45162</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1744,10 +1768,10 @@
         <v>45162</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1764,10 +1788,10 @@
         <v>45166</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1784,10 +1808,10 @@
         <v>45166</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1804,7 +1828,7 @@
         <v>45166</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
